--- a/data/1.xlsx
+++ b/data/1.xlsx
@@ -239,24 +239,23 @@
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="stacked"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$I$2:$I$9</c:f>
@@ -290,7 +289,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-BA1E-4538-9405-43B27BA8B21E}"/>
@@ -305,6 +303,77 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="406132128"/>
+        <c:axId val="406133792"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$K$2:$K$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.00_ </c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>7.46</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.46</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.46</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.46</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.46</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.46</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.46</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.46</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-395F-4545-A21B-4A01989410BA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="406132128"/>
         <c:axId val="406133792"/>
@@ -363,8 +432,8 @@
         <c:axId val="406133792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="10"/>
-          <c:min val="0"/>
+          <c:max val="8"/>
+          <c:min val="6"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1022,16 +1091,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>168275</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
+      <xdr:rowOff>44450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>15875</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>231775</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1054,11 +1123,11 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="新建文本文档_2" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="新建文本文档_1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="新建文本文档_1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="新建文本文档_2" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1327,7 +1396,7 @@
   <dimension ref="A1:Q83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:J9"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1376,6 +1445,9 @@
         <f>ABS(I2-7.46)</f>
         <v>0.39669180000000015</v>
       </c>
+      <c r="K2" s="5">
+        <v>7.46</v>
+      </c>
     </row>
     <row r="3" spans="6:17" x14ac:dyDescent="0.3">
       <c r="F3">
@@ -1394,6 +1466,9 @@
         <f t="shared" ref="J3:J9" si="0">ABS(I3-7.46)</f>
         <v>0.33984520000000007</v>
       </c>
+      <c r="K3" s="5">
+        <v>7.46</v>
+      </c>
     </row>
     <row r="4" spans="6:17" x14ac:dyDescent="0.3">
       <c r="F4">
@@ -1412,6 +1487,9 @@
         <f t="shared" si="0"/>
         <v>1.2717199999999984E-2</v>
       </c>
+      <c r="K4" s="5">
+        <v>7.46</v>
+      </c>
     </row>
     <row r="5" spans="6:17" x14ac:dyDescent="0.3">
       <c r="F5">
@@ -1430,6 +1508,9 @@
         <f t="shared" si="0"/>
         <v>6.3861999999996755E-3</v>
       </c>
+      <c r="K5" s="5">
+        <v>7.46</v>
+      </c>
     </row>
     <row r="6" spans="6:17" x14ac:dyDescent="0.3">
       <c r="F6">
@@ -1448,6 +1529,9 @@
         <f t="shared" si="0"/>
         <v>0.15574639999999995</v>
       </c>
+      <c r="K6" s="5">
+        <v>7.46</v>
+      </c>
     </row>
     <row r="7" spans="6:17" x14ac:dyDescent="0.3">
       <c r="F7">
@@ -1466,6 +1550,9 @@
         <f t="shared" si="0"/>
         <v>0.22297809999999973</v>
       </c>
+      <c r="K7" s="5">
+        <v>7.46</v>
+      </c>
     </row>
     <row r="8" spans="6:17" x14ac:dyDescent="0.3">
       <c r="F8">
@@ -1484,6 +1571,9 @@
         <f t="shared" si="0"/>
         <v>0.11804859999999984</v>
       </c>
+      <c r="K8" s="5">
+        <v>7.46</v>
+      </c>
     </row>
     <row r="9" spans="6:17" x14ac:dyDescent="0.3">
       <c r="F9">
@@ -1501,6 +1591,9 @@
       <c r="J9" s="6">
         <f t="shared" si="0"/>
         <v>0.19435969999999969</v>
+      </c>
+      <c r="K9" s="5">
+        <v>7.46</v>
       </c>
     </row>
     <row r="13" spans="6:17" x14ac:dyDescent="0.3">
